--- a/posesiones/1479711.xlsx
+++ b/posesiones/1479711.xlsx
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>13</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>17</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>22</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>12</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>22</v>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>25</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>25</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>13</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>32</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>12</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>8</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>7</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>18</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>24</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>16</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>11</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60">
         <v>24</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R62">
         <v>14</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>18</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>23</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>35</v>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>21</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R89">
         <v>32</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>4</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R93">
         <v>19</v>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R94">
         <v>16</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>11</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6919,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R111">
         <v>11</v>
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R112">
         <v>15</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R115">
         <v>23</v>
@@ -7410,10 +7410,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7548,10 +7548,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R122">
         <v>20</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R124">
         <v>3</v>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>18</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R127">
         <v>17</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8054,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R129">
         <v>17</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R131">
         <v>12</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R133">
         <v>22</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R141">
         <v>12</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8792,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R144">
         <v>23</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R146">
         <v>17</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R150">
         <v>11</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R153">
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R155">
         <v>12</v>
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R156">
         <v>9</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9495,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R158">
         <v>10</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9692,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R162">
         <v>15</v>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R174">
         <v>18</v>
@@ -10321,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R175">
         <v>26</v>
@@ -10374,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R176">
         <v>17</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R180">
         <v>20</v>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R181">
         <v>22</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R183">
         <v>10</v>
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R191">
         <v>21</v>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R192">
         <v>27</v>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R194">
         <v>5</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R198">
         <v>11</v>
@@ -11512,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R199">
         <v>12</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R205">
         <v>29</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R207">
         <v>14</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12144,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R212">
         <v>23</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12244,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R214">
         <v>5</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R216">
         <v>7</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12494,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R219">
         <v>16</v>
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12735,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R224">
         <v>15</v>
@@ -12788,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>17</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R234">
         <v>1</v>
@@ -13267,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>13</v>
@@ -13508,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13555,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R244">
         <v>16</v>
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R252">
         <v>15</v>
@@ -14125,10 +14125,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14222,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14551,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14733,10 +14733,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14786,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R267">
         <v>9</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R269">
         <v>23</v>
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14986,7 +14986,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R271">
         <v>16</v>
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R273">
         <v>14</v>
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R274">
         <v>17</v>
@@ -15192,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R276">
         <v>13</v>
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R278">
         <v>13</v>
@@ -15395,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R280">
         <v>1</v>
@@ -15498,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R281">
         <v>8</v>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15601,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R283">
         <v>19</v>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15701,7 +15701,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R285">
         <v>15</v>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R287">
         <v>11</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R289">
         <v>7</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16007,7 +16007,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>19</v>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16204,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R295">
         <v>11</v>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16307,7 +16307,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R297">
         <v>6</v>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R299">
         <v>20</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R301">
         <v>11</v>
@@ -16560,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16701,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16798,7 +16798,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R307">
         <v>19</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17092,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R313">
         <v>4</v>
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17195,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17292,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17339,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17480,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17530,7 +17530,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R322">
         <v>5</v>
@@ -17583,7 +17583,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R323">
         <v>13</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17686,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R325">
         <v>24</v>
@@ -17739,7 +17739,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17789,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R327">
         <v>5</v>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17889,7 +17889,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R329">
         <v>14</v>
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17992,7 +17992,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R331">
         <v>17</v>
@@ -18045,7 +18045,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18095,7 +18095,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R333">
         <v>11</v>
@@ -18148,7 +18148,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R334">
         <v>17</v>
@@ -18201,7 +18201,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R335">
         <v>18</v>
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R339">
         <v>28</v>
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18495,7 +18495,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R341">
         <v>17</v>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R347">
         <v>0</v>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R350">
         <v>22</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19036,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R352">
         <v>9</v>
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19371,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R359">
         <v>4</v>
@@ -19421,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19471,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R361">
         <v>13</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19571,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R363">
         <v>16</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19674,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R365">
         <v>23</v>
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R367">
         <v>6</v>
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19877,7 +19877,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R369">
         <v>22</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R375">
         <v>24</v>
@@ -20224,7 +20224,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R376">
         <v>5</v>
@@ -20268,10 +20268,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20365,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20406,10 +20406,10 @@
         <v>1</v>
       </c>
       <c r="P380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20459,7 +20459,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R381">
         <v>22</v>
@@ -20512,7 +20512,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R382">
         <v>10</v>
@@ -20562,7 +20562,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20609,7 +20609,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R384">
         <v>26</v>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R385">
         <v>19</v>
@@ -20715,7 +20715,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20759,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21047,7 +21047,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R393">
         <v>28</v>
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21476,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21667,7 +21667,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R406">
         <v>18</v>
@@ -21720,7 +21720,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R407">
         <v>17</v>
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R408">
         <v>15</v>
@@ -21823,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21873,7 +21873,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R410">
         <v>12</v>
@@ -21926,7 +21926,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R411">
         <v>21</v>
@@ -21979,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22029,7 +22029,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R413">
         <v>19</v>
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22132,7 +22132,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R415">
         <v>5</v>
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22276,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22323,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22370,7 +22370,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22420,7 +22420,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R421">
         <v>0</v>
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22567,7 +22567,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R424">
         <v>24</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22767,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R428">
         <v>6</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22861,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23052,7 +23052,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R434">
         <v>21</v>
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23155,7 +23155,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23205,7 +23205,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R437">
         <v>27</v>
@@ -23255,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23355,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R440">
         <v>17</v>
@@ -23408,7 +23408,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R441">
         <v>27</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23511,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R443">
         <v>13</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23611,7 +23611,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R445">
         <v>24</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23805,7 +23805,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R449">
         <v>11</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23996,7 +23996,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R453">
         <v>17</v>
@@ -24049,7 +24049,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R454">
         <v>20</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24149,7 +24149,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R456">
         <v>16</v>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24246,7 +24246,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24340,7 +24340,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24434,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24575,7 +24575,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R465">
         <v>32</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R467">
         <v>19</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24781,7 +24781,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R469">
         <v>18</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24884,7 +24884,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R471">
         <v>16</v>
@@ -24937,7 +24937,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R472">
         <v>14</v>
@@ -24990,7 +24990,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R473">
         <v>21</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25190,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R477">
         <v>22</v>
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25528,7 +25528,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R484">
         <v>1</v>
@@ -25578,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25625,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25719,7 +25719,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25860,7 +25860,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25910,7 +25910,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R492">
         <v>7</v>
@@ -25954,10 +25954,10 @@
         <v>1</v>
       </c>
       <c r="P493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q493">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25998,7 +25998,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
